--- a/students_grades/ovi_grades.xlsx
+++ b/students_grades/ovi_grades.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S1DLD78\Desktop\Stuff\13_Scripts_Python\python_exercise\students_grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\03_my_projects\python_exercise\students_grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2EDE2FE-0A75-4BE5-85E1-09DD9F480CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332C5D8-7AB0-451A-AF88-CCF7F20A5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32295" yWindow="2415" windowWidth="15945" windowHeight="9750" xr2:uid="{F452763C-4E1F-49C0-9B4B-763D1EA4D213}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F452763C-4E1F-49C0-9B4B-763D1EA4D213}"/>
   </bookViews>
   <sheets>
-    <sheet name="RTC_DL_DPC_signals" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -892,15 +892,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -922,7 +922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
